--- a/Zoologico-municipal.xlsx
+++ b/Zoologico-municipal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Novo Lar\Atividades\Excel\Aula7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958EFF92-A845-4114-8A76-C6698B9E5995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCDD14C-CD12-4743-839D-CC49C08B9401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Zoológico Municipal</t>
   </si>
@@ -90,15 +90,6 @@
   </si>
   <si>
     <t>Soma de animais</t>
-  </si>
-  <si>
-    <t>Média de espécies</t>
-  </si>
-  <si>
-    <t>quantas espécies</t>
-  </si>
-  <si>
-    <t>maiores que 200kg</t>
   </si>
 </sst>
 </file>
@@ -111,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="0.0&quot;m&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0&quot;kg&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -164,30 +155,30 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,228 +503,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>300</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>280</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.45</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.85</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>230</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.9</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>38</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>65</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.76</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>90</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.9</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
